--- a/000_Project/python_tools/读excel文件识别截止日期自动发送邮件提醒给相关人员/Confluence_vul.xlsx
+++ b/000_Project/python_tools/读excel文件识别截止日期自动发送邮件提醒给相关人员/Confluence_vul.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="183">
   <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修复中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内网扫描</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏洞预警</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +291,6 @@
   </si>
   <si>
     <t>通知邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tdcqma@163.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019-04-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019-0524</t>
   </si>
   <si>
@@ -629,73 +601,71 @@
     <t>2019-0605</t>
   </si>
   <si>
+    <t>严重</t>
+  </si>
+  <si>
+    <t>修复中</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>中危</t>
+  </si>
+  <si>
+    <t>低危</t>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>延期修复中</t>
+  </si>
+  <si>
     <t>2019-05-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-05-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已延期</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>高危</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
   </si>
   <si>
     <t>2019-05-07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-05-08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-05-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-06-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2019-01-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-05-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-05-06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重</t>
-    <rPh sb="0" eb="1">
-      <t>yan zhong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低危</t>
-    <rPh sb="0" eb="1">
-      <t>di</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高危</t>
-    <rPh sb="0" eb="1">
-      <t>gao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wei hai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低危</t>
-    <rPh sb="0" eb="1">
-      <t>di wei</t>
-    </rPh>
+  </si>
+  <si>
+    <t>mahaibin@helloworld.cn,liuxin02@helloworld.cn</t>
+  </si>
+  <si>
+    <t>mahaibin@helloworld.cn</t>
+  </si>
+  <si>
+    <t>tdcqma@helloworld,liuxin02@helloworld.cn</t>
+  </si>
+  <si>
+    <t>tdcqma@helloworld,2111110093@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111161@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,9 +889,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +924,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,12 +1255,12 @@
     <col min="2" max="2" width="33.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="16.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="35" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
@@ -1303,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
@@ -1312,74 +1282,74 @@
         <v>0</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>85</v>
+      <c r="B2" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>158</v>
+        <v>75</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="11"/>
@@ -1388,35 +1358,37 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>86</v>
+      <c r="B3" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>181</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="14"/>
       <c r="O3" s="11"/>
@@ -1425,35 +1397,35 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>86</v>
+      <c r="B4" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="11"/>
@@ -1462,35 +1434,35 @@
       <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>86</v>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="11"/>
@@ -1499,76 +1471,78 @@
       <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>86</v>
+      <c r="B6" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>87</v>
+      <c r="B7" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="11"/>
@@ -1577,35 +1551,35 @@
       <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>87</v>
+      <c r="B8" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="11"/>
@@ -1614,35 +1588,35 @@
       <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>87</v>
+      <c r="B9" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" s="14"/>
       <c r="O9" s="11"/>
@@ -1651,76 +1625,76 @@
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>87</v>
+      <c r="B10" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>88</v>
+      <c r="B11" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="11"/>
@@ -1729,35 +1703,35 @@
       <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>88</v>
+      <c r="B12" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="11"/>
@@ -1766,37 +1740,37 @@
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>88</v>
+      <c r="B13" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N13" s="14"/>
       <c r="O13" s="11"/>
@@ -1805,37 +1779,37 @@
       <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>95</v>
+      <c r="B14" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>180</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="11"/>
@@ -1844,76 +1818,76 @@
       <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>95</v>
+      <c r="B15" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>95</v>
+      <c r="B16" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16" s="14"/>
       <c r="O16" s="11"/>
@@ -1922,35 +1896,37 @@
       <c r="A17" s="23">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>89</v>
+      <c r="B17" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="13"/>
+        <v>66</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="11"/>
@@ -1959,35 +1935,35 @@
       <c r="A18" s="23">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>89</v>
+      <c r="B18" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="11"/>
@@ -1996,76 +1972,76 @@
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>89</v>
+      <c r="B19" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N19" s="14"/>
       <c r="O19" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>89</v>
+      <c r="B20" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="11"/>
@@ -2075,34 +2051,36 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>182</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="11"/>
@@ -2111,35 +2089,35 @@
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>96</v>
+      <c r="B22" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="11"/>
@@ -2148,41 +2126,41 @@
       <c r="A23" s="23">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>96</v>
+      <c r="B23" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2190,34 +2168,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>177</v>
+        <v>24</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="11"/>
@@ -2227,34 +2205,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N25" s="14"/>
       <c r="O25" s="11"/>
@@ -2264,40 +2242,40 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N26" s="14"/>
       <c r="O26" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2305,116 +2283,116 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>98</v>
+      <c r="B28" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>98</v>
+      <c r="B29" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="11"/>
@@ -2423,35 +2401,35 @@
       <c r="A30" s="23">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>95</v>
+      <c r="B30" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
@@ -2460,35 +2438,35 @@
       <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>95</v>
+      <c r="B31" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N31" s="14"/>
       <c r="O31" s="11"/>
@@ -2498,34 +2476,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
@@ -2535,34 +2513,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N33" s="14"/>
       <c r="O33" s="11"/>
@@ -2572,34 +2550,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N34" s="14"/>
       <c r="O34" s="11"/>
@@ -2609,34 +2587,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35" s="14"/>
       <c r="O35" s="11"/>
@@ -2646,34 +2624,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>177</v>
+        <v>25</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36" s="14"/>
       <c r="O36" s="11"/>
@@ -2683,34 +2661,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N37" s="14"/>
       <c r="O37" s="11"/>
@@ -2720,34 +2698,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="11"/>
@@ -2757,34 +2735,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
       <c r="M39" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="11"/>
@@ -2794,34 +2772,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N40" s="14"/>
       <c r="O40" s="11"/>
@@ -2831,34 +2809,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N41" s="14"/>
       <c r="O41" s="11"/>
@@ -2868,34 +2846,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N42" s="14"/>
       <c r="O42" s="11"/>
@@ -2905,34 +2883,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="11"/>
@@ -2942,34 +2920,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="11"/>
@@ -2979,34 +2957,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="11"/>
@@ -3016,34 +2994,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>177</v>
+        <v>25</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N46" s="14"/>
       <c r="O46" s="11"/>
@@ -3053,34 +3031,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="11"/>
@@ -3090,34 +3068,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="11"/>
@@ -3127,34 +3105,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="11"/>
@@ -3164,34 +3142,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N50" s="14"/>
       <c r="O50" s="11"/>
@@ -3201,34 +3179,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="11"/>
@@ -3238,34 +3216,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
       <c r="M52" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N52" s="14"/>
       <c r="O52" s="11"/>
@@ -3275,34 +3253,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
       <c r="M53" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="11"/>
@@ -3312,34 +3290,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J54" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
       <c r="M54" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N54" s="14"/>
       <c r="O54" s="11"/>
@@ -3349,34 +3327,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>178</v>
+        <v>25</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N55" s="14"/>
       <c r="O55" s="11"/>
@@ -3386,34 +3364,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J56" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N56" s="14"/>
       <c r="O56" s="11"/>
@@ -3423,34 +3401,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J57" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="11"/>
@@ -3460,34 +3438,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J58" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N58" s="14"/>
       <c r="O58" s="11"/>
@@ -3497,34 +3475,34 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N59" s="14"/>
       <c r="O59" s="11"/>
@@ -3534,34 +3512,34 @@
         <v>59</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N60" s="14"/>
       <c r="O60" s="11"/>
@@ -3571,34 +3549,34 @@
         <v>60</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N61" s="14"/>
       <c r="O61" s="11"/>
@@ -3608,34 +3586,34 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
       <c r="M62" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N62" s="14"/>
       <c r="O62" s="11"/>
@@ -3645,34 +3623,34 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
       <c r="M63" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N63" s="14"/>
       <c r="O63" s="11"/>
@@ -3682,34 +3660,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J64" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N64" s="14"/>
       <c r="O64" s="11"/>
@@ -3719,34 +3697,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N65" s="14"/>
       <c r="O65" s="11"/>
@@ -3756,34 +3734,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J66" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
       <c r="M66" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N66" s="14"/>
       <c r="O66" s="11"/>
@@ -3793,34 +3771,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J67" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
       <c r="M67" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N67" s="14"/>
       <c r="O67" s="11"/>
@@ -3830,34 +3808,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J68" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N68" s="14"/>
       <c r="O68" s="11"/>
@@ -3867,34 +3845,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J69" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N69" s="14"/>
       <c r="O69" s="11"/>
@@ -3904,34 +3882,34 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N70" s="14"/>
       <c r="O70" s="11"/>
@@ -3941,34 +3919,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J71" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
       <c r="M71" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N71" s="14"/>
       <c r="O71" s="11"/>
@@ -3978,34 +3956,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J72" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N72" s="14"/>
       <c r="O72" s="11"/>
@@ -4015,34 +3993,34 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J73" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J73" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N73" s="14"/>
       <c r="O73" s="11"/>
@@ -4052,34 +4030,34 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J74" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J74" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K74" s="14"/>
       <c r="L74" s="14"/>
       <c r="M74" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N74" s="14"/>
       <c r="O74" s="11"/>
@@ -4089,34 +4067,34 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J75" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J75" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K75" s="14"/>
       <c r="L75" s="14"/>
       <c r="M75" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N75" s="14"/>
       <c r="O75" s="11"/>
@@ -4126,34 +4104,34 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N76" s="14"/>
       <c r="O76" s="11"/>
@@ -4163,34 +4141,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J77" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
       <c r="M77" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N77" s="14"/>
       <c r="O77" s="11"/>
@@ -4200,34 +4178,34 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J78" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J78" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N78" s="14"/>
       <c r="O78" s="11"/>
@@ -4237,34 +4215,34 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J79" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N79" s="14"/>
       <c r="O79" s="11"/>
@@ -4274,34 +4252,34 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J80" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J80" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N80" s="14"/>
       <c r="O80" s="11"/>
@@ -4311,34 +4289,34 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J81" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N81" s="14"/>
       <c r="O81" s="11"/>
@@ -4348,34 +4326,34 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J82" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J82" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
       <c r="M82" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N82" s="14"/>
       <c r="O82" s="11"/>
@@ -4385,34 +4363,34 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J83" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J83" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N83" s="14"/>
       <c r="O83" s="11"/>
@@ -4422,34 +4400,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J84" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J84" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N84" s="14"/>
       <c r="O84" s="11"/>
@@ -4459,34 +4437,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J85" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J85" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N85" s="14"/>
       <c r="O85" s="11"/>
@@ -4496,34 +4474,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J86" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J86" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N86" s="14"/>
       <c r="O86" s="11"/>
@@ -4533,34 +4511,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J87" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J87" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="11"/>
@@ -4570,34 +4548,34 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J88" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J88" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="11"/>
@@ -4607,37 +4585,37 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H89" s="29" t="s">
-        <v>177</v>
+        <v>25</v>
+      </c>
+      <c r="H89" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J89" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J89" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N89" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O89" s="11"/>
     </row>
@@ -4646,37 +4624,39 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="F90" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="29" t="s">
-        <v>179</v>
+        <v>25</v>
+      </c>
+      <c r="H90" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J90" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J90" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N90" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O90" s="11"/>
     </row>
@@ -4685,37 +4665,37 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J91" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J91" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
       <c r="M91" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N91" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O91" s="11"/>
     </row>
@@ -4724,37 +4704,37 @@
         <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="29" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J92" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J92" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
       <c r="M92" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N92" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O92" s="11"/>
     </row>
@@ -4763,37 +4743,37 @@
         <v>92</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J93" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J93" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N93" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O93" s="11"/>
     </row>
@@ -4802,36 +4782,36 @@
         <v>93</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="J94" s="33" t="s">
         <v>168</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="11"/>
@@ -4841,36 +4821,36 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J95" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J95" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K95" s="14"/>
-      <c r="L95" s="33">
+      <c r="L95" s="32">
         <v>43601</v>
       </c>
       <c r="M95" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N95" s="14"/>
       <c r="O95" s="11"/>
@@ -4880,40 +4860,40 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J96" s="34" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="J96" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="K96" s="14"/>
       <c r="L96" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N96" s="14"/>
       <c r="O96" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -4921,40 +4901,40 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J97" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N97" s="14"/>
       <c r="O97" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -4962,40 +4942,40 @@
         <v>97</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J98" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N98" s="14"/>
       <c r="O98" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -5003,36 +4983,36 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J99" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="J99" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="K99" s="14"/>
       <c r="L99" s="14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N99" s="14"/>
       <c r="O99" s="11"/>
@@ -5042,36 +5022,36 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J100" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J100" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N100" s="14"/>
       <c r="O100" s="11"/>
@@ -5081,36 +5061,36 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>178</v>
+        <v>24</v>
+      </c>
+      <c r="H101" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J101" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J101" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K101" s="14"/>
-      <c r="L101" s="33">
+      <c r="L101" s="32">
         <v>43595</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="11"/>
@@ -5120,36 +5100,36 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J102" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="J102" s="33" t="s">
+        <v>175</v>
       </c>
       <c r="K102" s="14"/>
-      <c r="L102" s="33">
+      <c r="L102" s="32">
         <v>43595</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="11"/>
@@ -5159,36 +5139,36 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J103" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="J103" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="K103" s="14"/>
-      <c r="L103" s="33">
+      <c r="L103" s="32">
         <v>43595</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N103" s="14"/>
       <c r="O103" s="11"/>
@@ -5198,36 +5178,36 @@
         <v>103</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J104" s="34" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="J104" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="K104" s="14"/>
-      <c r="L104" s="33">
+      <c r="L104" s="32">
         <v>43595</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N104" s="14"/>
       <c r="O104" s="11"/>
@@ -5237,37 +5217,37 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>84</v>
+        <v>116</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J105" s="34" t="s">
-        <v>174</v>
+        <v>169</v>
+      </c>
+      <c r="J105" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="K105" s="14"/>
       <c r="L105" s="14"/>
       <c r="M105" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N105" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O105" s="11"/>
     </row>
@@ -5281,9 +5261,9 @@
     <hyperlink ref="N93" r:id="rId4"/>
     <hyperlink ref="N89" r:id="rId5"/>
     <hyperlink ref="N105" r:id="rId6"/>
-    <hyperlink ref="E2" r:id="rId7"/>
-    <hyperlink ref="E14" r:id="rId8"/>
-    <hyperlink ref="B2" r:id="rId9" display="http://mdrasdfp.corp.tdcqma.com"/>
+    <hyperlink ref="B2" r:id="rId7" display="http://mdrasdfp.corp.tdcqma.com"/>
+    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5318,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
@@ -5330,25 +5310,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5356,32 +5336,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="14">
         <v>20190506</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="11"/>
     </row>
